--- a/analysis_workspace_test/unit_test_matrix.xlsx
+++ b/analysis_workspace_test/unit_test_matrix.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\werk\analyse\test_analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frnkv\Documents\GitHub\analysis_workspace\analysis_workspace_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC173406-8882-460A-A85D-449B901417FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
+    <workbookView xWindow="45" yWindow="945" windowWidth="28080" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,63 +26,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
-  <si>
-    <t>analysis_collection</t>
-  </si>
-  <si>
-    <t>spatial_analysis_collection</t>
-  </si>
-  <si>
-    <t>predicated_analysis_collection</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="52">
   <si>
     <t>spatial_collection</t>
   </si>
   <si>
-    <t>analysis_set</t>
-  </si>
-  <si>
-    <t>root_analysis</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>spatial_op</t>
-  </si>
-  <si>
-    <t>spatial_analysis_col_mix_test_case</t>
-  </si>
-  <si>
-    <t>test_on_spatial_analysis_col()</t>
-  </si>
-  <si>
-    <t>test_on_analysis_col()</t>
-  </si>
-  <si>
-    <t>test_on_predicate_analysis_col()</t>
-  </si>
-  <si>
-    <t>test_on_analysis_set()</t>
-  </si>
-  <si>
-    <t>test_with_buffer_col()</t>
-  </si>
-  <si>
-    <t>test_with_spatial_collection()</t>
-  </si>
-  <si>
-    <t>binary_op</t>
-  </si>
-  <si>
-    <t>follow</t>
+    <t>filter_by_geometry_tc</t>
+  </si>
+  <si>
+    <t>sw_collection</t>
+  </si>
+  <si>
+    <t>test_on_sw_col()</t>
+  </si>
+  <si>
+    <t>filter_by_predicate_tc</t>
+  </si>
+  <si>
+    <t>follow_join_tc</t>
+  </si>
+  <si>
+    <t>follow_method_tc</t>
+  </si>
+  <si>
+    <t>follow_topology_tc</t>
+  </si>
+  <si>
+    <t>follow_trace_tc</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>filter_by_distance_tc</t>
+  </si>
+  <si>
+    <t>buffer_tc</t>
+  </si>
+  <si>
+    <t>spatial_tc</t>
+  </si>
+  <si>
+    <t>binary_op_tc</t>
+  </si>
+  <si>
+    <t>materialize_tc</t>
+  </si>
+  <si>
+    <t>follow_root_tc</t>
+  </si>
+  <si>
+    <t>predicate_filter_collection</t>
+  </si>
+  <si>
+    <t>spatial_filter_collection</t>
+  </si>
+  <si>
+    <t>distance_filter_collection</t>
+  </si>
+  <si>
+    <t>sw_view_collection</t>
+  </si>
+  <si>
+    <t>materialized_collection</t>
+  </si>
+  <si>
+    <t>method_collection</t>
+  </si>
+  <si>
+    <t>join_collection</t>
+  </si>
+  <si>
+    <t>root_collection</t>
+  </si>
+  <si>
+    <t>topology_collection</t>
+  </si>
+  <si>
+    <t>trace_collection</t>
+  </si>
+  <si>
+    <t>area_collection</t>
+  </si>
+  <si>
+    <t>buffer_collection</t>
+  </si>
+  <si>
+    <t>area_binary_op_collection</t>
+  </si>
+  <si>
+    <t>area_materialized_collection</t>
+  </si>
+  <si>
+    <t>spatial_binary_op_collection</t>
+  </si>
+  <si>
+    <t>geometry_collection</t>
+  </si>
+  <si>
+    <t>spatial_materialized_collection</t>
+  </si>
+  <si>
+    <t>test_on_join_col()</t>
+  </si>
+  <si>
+    <t>test_on_root_col()</t>
+  </si>
+  <si>
+    <t>test_on_area_col()</t>
+  </si>
+  <si>
+    <t>test_on_spatial_col()</t>
+  </si>
+  <si>
+    <t>test_on_topology_col()</t>
+  </si>
+  <si>
+    <t>test_on_trace_col()</t>
+  </si>
+  <si>
+    <t>test_on_buffer_col()</t>
+  </si>
+  <si>
+    <t>test_on_view_col()</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>test_on_binary_col()</t>
+  </si>
+  <si>
+    <t>test_on_area_binary_col()</t>
+  </si>
+  <si>
+    <t>test_on_geometry_col()</t>
+  </si>
+  <si>
+    <t>test_on_spatial_binary_col()</t>
+  </si>
+  <si>
+    <t>test_on_spatial_filter_col()</t>
+  </si>
+  <si>
+    <t>test_on_pred_filter_col()</t>
+  </si>
+  <si>
+    <t>test_on_distance_filter_col()</t>
+  </si>
+  <si>
+    <t>test_on_method_col()</t>
+  </si>
+  <si>
+    <t>test_on_record_collection()</t>
+  </si>
+  <si>
+    <t>record_collection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,132 +498,993 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/analysis_workspace_test/unit_test_matrix.xlsx
+++ b/analysis_workspace_test/unit_test_matrix.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frnkv\Documents\GitHub\analysis_workspace\analysis_workspace_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC173406-8882-460A-A85D-449B901417FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B11F69-9DBE-44AE-8BBB-5905D29969F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="945" windowWidth="28080" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="1215" windowWidth="28080" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -502,7 +501,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
